--- a/ProtoConfig/Config/VIP&充值相关_语言.xlsx
+++ b/ProtoConfig/Config/VIP&充值相关_语言.xlsx
@@ -203,81 +203,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钻石</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钻石</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钻石</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钻石</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钻石</t>
-    </r>
-  </si>
-  <si>
     <t>Test Gift package 1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -300,81 +225,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>鑽石</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>鑽石</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>鑽石</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>鑽石</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>鑽石</t>
-    </r>
-  </si>
-  <si>
     <t>PayGoods\name\301</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -386,21 +236,6 @@
     <t>500 Gems</t>
   </si>
   <si>
-    <t>1000 Gems</t>
-  </si>
-  <si>
-    <t>2000 Gems</t>
-  </si>
-  <si>
-    <t>3000 Gems</t>
-  </si>
-  <si>
-    <t>5000 Gems</t>
-  </si>
-  <si>
-    <t>10000 Gems</t>
-  </si>
-  <si>
     <t>PayPack\name\10001</t>
   </si>
   <si>
@@ -1963,6 +1798,171 @@
   </si>
   <si>
     <t>VIP-365天卡</t>
+  </si>
+  <si>
+    <r>
+      <t>1060</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钻石</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钻石</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3480</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钻石</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钻石</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钻石</t>
+    </r>
+  </si>
+  <si>
+    <t>1060 Gems</t>
+  </si>
+  <si>
+    <t>2240 Gems</t>
+  </si>
+  <si>
+    <t>3480 Gems</t>
+  </si>
+  <si>
+    <t>6000 Gems</t>
+  </si>
+  <si>
+    <t>12500 Gems</t>
+  </si>
+  <si>
+    <r>
+      <t>1060</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鑽石</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鑽石</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3480</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鑽石</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鑽石</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鑽石</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2258,248 +2258,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -2760,6 +2518,204 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color auto="1"/>
@@ -2785,6 +2741,26 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color auto="1"/>
@@ -2793,36 +2769,60 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4524" displayName="表1_4524" ref="A4:F261" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4524" displayName="表1_4524" ref="A4:F261" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A4:F261"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="id" dataDxfId="7"/>
-    <tableColumn id="2" name="zh_cn" dataDxfId="6"/>
-    <tableColumn id="4" name="zh_tw" dataDxfId="5"/>
-    <tableColumn id="7" name="en" dataDxfId="4"/>
-    <tableColumn id="5" name="ja" dataDxfId="3"/>
-    <tableColumn id="6" name="ko" dataDxfId="2"/>
+    <tableColumn id="1" name="id" dataDxfId="16"/>
+    <tableColumn id="2" name="zh_cn" dataDxfId="15"/>
+    <tableColumn id="4" name="zh_tw" dataDxfId="14"/>
+    <tableColumn id="7" name="en" dataDxfId="13"/>
+    <tableColumn id="5" name="ja" dataDxfId="12"/>
+    <tableColumn id="6" name="ko" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_45242" displayName="表1_45242" ref="A4:F259" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_45242" displayName="表1_45242" ref="A4:F259" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A4:F259"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="id" dataDxfId="13"/>
-    <tableColumn id="2" name="zh_cn" dataDxfId="12"/>
-    <tableColumn id="4" name="zh_tw" dataDxfId="11"/>
-    <tableColumn id="7" name="en" dataDxfId="10"/>
-    <tableColumn id="5" name="ja" dataDxfId="9"/>
-    <tableColumn id="6" name="ko" dataDxfId="8"/>
+    <tableColumn id="1" name="id" dataDxfId="5"/>
+    <tableColumn id="2" name="zh_cn" dataDxfId="4"/>
+    <tableColumn id="4" name="zh_tw" dataDxfId="3"/>
+    <tableColumn id="7" name="en" dataDxfId="2"/>
+    <tableColumn id="5" name="ja" dataDxfId="1"/>
+    <tableColumn id="6" name="ko" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3089,7 +3089,7 @@
   <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -3196,10 +3196,10 @@
         <v>24</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -3210,13 +3210,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -3227,13 +3227,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -3244,13 +3244,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -3261,13 +3261,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -3278,13 +3278,13 @@
         <v>19</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -3295,13 +3295,13 @@
         <v>20</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -3311,29 +3311,29 @@
         <v>21</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -3343,13 +3343,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -3359,45 +3359,45 @@
         <v>23</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -3412,16 +3412,16 @@
     </row>
     <row r="19" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -3429,32 +3429,32 @@
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -3473,16 +3473,16 @@
     </row>
     <row r="23" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -3491,16 +3491,16 @@
     </row>
     <row r="24" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -3509,16 +3509,16 @@
     </row>
     <row r="25" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -3527,16 +3527,16 @@
     </row>
     <row r="26" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -3545,16 +3545,16 @@
     </row>
     <row r="27" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -3563,16 +3563,16 @@
     </row>
     <row r="28" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -3591,16 +3591,16 @@
     </row>
     <row r="30" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -3609,16 +3609,16 @@
     </row>
     <row r="31" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -3627,16 +3627,16 @@
     </row>
     <row r="32" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -3655,16 +3655,16 @@
     </row>
     <row r="34" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -3673,16 +3673,16 @@
     </row>
     <row r="35" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -3691,48 +3691,48 @@
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:8" ht="16.5" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:8" ht="16.5" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -3747,48 +3747,48 @@
     </row>
     <row r="40" spans="1:8" ht="16.5" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:8" ht="16.5" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:8" ht="16.5" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -5661,16 +5661,16 @@
     </row>
     <row r="5" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -5678,16 +5678,16 @@
     </row>
     <row r="6" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -5695,16 +5695,16 @@
     </row>
     <row r="7" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -5721,16 +5721,16 @@
     </row>
     <row r="9" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -5738,16 +5738,16 @@
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -5755,64 +5755,64 @@
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -5827,32 +5827,32 @@
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -5860,16 +5860,16 @@
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -5886,16 +5886,16 @@
     </row>
     <row r="20" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -5904,16 +5904,16 @@
     </row>
     <row r="21" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>74</v>
-      </c>
       <c r="C21" s="17" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -5922,16 +5922,16 @@
     </row>
     <row r="22" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -5940,16 +5940,16 @@
     </row>
     <row r="23" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -5958,16 +5958,16 @@
     </row>
     <row r="24" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -5986,16 +5986,16 @@
     </row>
     <row r="26" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -6004,16 +6004,16 @@
     </row>
     <row r="27" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -6022,16 +6022,16 @@
     </row>
     <row r="28" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -6050,16 +6050,16 @@
     </row>
     <row r="30" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -6068,16 +6068,16 @@
     </row>
     <row r="31" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -6086,16 +6086,16 @@
     </row>
     <row r="32" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
